--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2553.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2553.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16867153499596</v>
+        <v>1.943378686904907</v>
       </c>
       <c r="B1">
-        <v>1.869072988064037</v>
+        <v>1.957891941070557</v>
       </c>
       <c r="C1">
-        <v>3.967834953651221</v>
+        <v>7.953717708587646</v>
       </c>
       <c r="D1">
-        <v>1.816815055240968</v>
+        <v>0.9170961380004883</v>
       </c>
       <c r="E1">
-        <v>0.8689844619305926</v>
+        <v>0.4319026172161102</v>
       </c>
     </row>
   </sheetData>
